--- a/data/trans_bre/P05A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P05A_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.7358691648193194</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.6408718875943311</v>
+        <v>-0.6408718875943326</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1199074759524768</v>
@@ -649,7 +649,7 @@
         <v>0.01936994095912525</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.09043808256517062</v>
+        <v>-0.09043808256517082</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.707316803272296</v>
+        <v>-0.8753896533215937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.722082063935559</v>
+        <v>-6.352073574320577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.789311470274169</v>
+        <v>-4.388780255562144</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.535074844633119</v>
+        <v>-3.568251822912479</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04822047058399087</v>
+        <v>-0.02204388819604895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1416240789283086</v>
+        <v>-0.1535771401397058</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1198023549530895</v>
+        <v>-0.1060758303188121</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3844939564583663</v>
+        <v>-0.3933687894813896</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.537116417825617</v>
+        <v>9.287678928488027</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.272928867959558</v>
+        <v>4.238331875129124</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.926714773949286</v>
+        <v>6.058220151002516</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.674366872195242</v>
+        <v>1.749345288348245</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3073531313413626</v>
+        <v>0.2982659500684177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1476958904894092</v>
+        <v>0.1203687436224462</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1658954325290374</v>
+        <v>0.1766467939151816</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3215101931439402</v>
+        <v>0.3157803788212193</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.3751004914361644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.506935571156248</v>
+        <v>2.506935571156246</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2224724106883443</v>
@@ -749,7 +749,7 @@
         <v>-0.01228734731595717</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2145601007716347</v>
+        <v>0.2145601007716346</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.42557781062377</v>
+        <v>2.222388996187454</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.85513644719916</v>
+        <v>-3.82545705147046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.516035998659063</v>
+        <v>-4.601624541718756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3787422825039125</v>
+        <v>-0.3891065600568686</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07281667898756748</v>
+        <v>0.06971695457256394</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1119285698151212</v>
+        <v>-0.1099922405099557</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.138663619659029</v>
+        <v>-0.1407240973804137</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02765130709685251</v>
+        <v>-0.03145926871263292</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.34612628089554</v>
+        <v>10.89352158540579</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.548261407051418</v>
+        <v>4.891819710622269</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.642507926852197</v>
+        <v>3.795390732094713</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.525108731603137</v>
+        <v>5.381708031021581</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4118226969112063</v>
+        <v>0.3950663091948489</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1561710474265665</v>
+        <v>0.1620945395444834</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1291007152380459</v>
+        <v>0.1367712369850749</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5562602009124284</v>
+        <v>0.5216305795303495</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2913489441795869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4105969568982376</v>
+        <v>0.4105969568982404</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.01593519615777829</v>
@@ -849,7 +849,7 @@
         <v>0.007439470035586673</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02169980142212977</v>
+        <v>0.02169980142212992</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.228825998490277</v>
+        <v>-5.693009303403088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.603585767571514</v>
+        <v>-3.942560859601078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.883194258295675</v>
+        <v>-4.765029510783526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.919939586938754</v>
+        <v>-3.650623718583896</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.16909947623257</v>
+        <v>-0.186288368883724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08589839152040168</v>
+        <v>-0.08877631601787693</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1172501539679266</v>
+        <v>-0.1140417666833932</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1774046247628937</v>
+        <v>-0.1724514755847587</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.428538578949913</v>
+        <v>4.26704442635879</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.906388877297203</v>
+        <v>6.220999854157578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.942998210129988</v>
+        <v>5.22861382977586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.543905100343616</v>
+        <v>4.486141449419811</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1741517870863376</v>
+        <v>0.1613421249983428</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1950169060229516</v>
+        <v>0.1744138126355073</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1346134464183505</v>
+        <v>0.1433579934115372</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2738626432481576</v>
+        <v>0.2697529200846974</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.292569062273941</v>
+        <v>3.59488694808425</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.193180626544063</v>
+        <v>-5.986318921942933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.169867568261233</v>
+        <v>-2.935718954998064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.795473252150621</v>
+        <v>-1.63782168366549</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1088690263336193</v>
+        <v>0.1223970242431317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1187499345054221</v>
+        <v>-0.1154650658377379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07997201173071811</v>
+        <v>-0.07342380043785202</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04945723046818525</v>
+        <v>-0.04653916317405082</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.64995593305219</v>
+        <v>11.73976452433015</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.92774364185497</v>
+        <v>2.855569153564252</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.056339271885625</v>
+        <v>6.006499676839868</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.728083114210888</v>
+        <v>6.481268587416501</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4603777129621067</v>
+        <v>0.4595314278718271</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06302833412293689</v>
+        <v>0.05957284114646684</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1749449470629844</v>
+        <v>0.1696732635442661</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2155399201015895</v>
+        <v>0.2105476782285517</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.6321246976857431</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.827592424557742</v>
+        <v>1.827592424557739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1653868371588249</v>
@@ -1049,7 +1049,7 @@
         <v>0.01756907360887617</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.09850869922718045</v>
+        <v>0.09850869922718029</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.374093386206664</v>
+        <v>2.500816036412672</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.284920549740911</v>
+        <v>-2.246456628998641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.636590286607862</v>
+        <v>-1.620070349235077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.03672902033424552</v>
+        <v>0.1022159166312388</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0784053205327038</v>
+        <v>0.0819614629941358</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.05560237535049632</v>
+        <v>-0.05531398437989624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.04396362669691147</v>
+        <v>-0.04534402042230234</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.002089176625934871</v>
+        <v>0.005250926366016171</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.983966230252565</v>
+        <v>7.277535050327498</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.628825992583964</v>
+        <v>2.603292963602643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.062349905212381</v>
+        <v>3.113341437273942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.746706544240201</v>
+        <v>3.738729813675823</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2482905308787056</v>
+        <v>0.2568022576692071</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06833855370122907</v>
+        <v>0.06790611490926593</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08903272042401836</v>
+        <v>0.08850117676755255</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2189982864446592</v>
+        <v>0.213499406078023</v>
       </c>
     </row>
     <row r="19">
